--- a/vehicles-original.xlsx
+++ b/vehicles-original.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laila\Desktop\pythonTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2FAA3B-3416-4E40-93C1-E2D4BE4915D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2457,8 +2463,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2534,6 +2540,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2580,7 +2594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2612,9 +2626,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2646,6 +2678,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2821,14 +2871,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2970,7 +3023,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3026,7 +3079,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3079,7 +3132,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3126,7 +3179,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3164,7 +3217,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3214,7 +3267,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3261,7 +3314,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3364,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3355,7 +3408,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3393,7 +3446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -3440,7 +3493,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3484,7 +3537,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3540,7 +3593,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3599,7 +3652,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3646,7 +3699,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -3687,7 +3740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3734,7 +3787,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -3781,7 +3834,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3834,7 +3887,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -3857,7 +3910,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3904,7 +3957,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -3948,7 +4001,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -4001,7 +4054,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -4045,7 +4098,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4145,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4142,7 +4195,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4195,7 +4248,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4242,7 +4295,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4280,7 +4333,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -4336,7 +4389,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4365,7 +4418,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4415,7 +4468,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4459,7 +4512,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -4497,7 +4550,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -4538,7 +4591,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -4594,7 +4647,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -4653,7 +4706,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -4700,7 +4753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -4744,7 +4797,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -4791,7 +4844,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -4841,7 +4894,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -4900,7 +4953,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -4941,7 +4994,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -4994,7 +5047,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -5047,7 +5100,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -5100,7 +5153,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -5153,7 +5206,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -5206,7 +5259,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -5259,7 +5312,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -5312,7 +5365,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -5365,7 +5418,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -5418,7 +5471,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -5471,7 +5524,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -5524,7 +5577,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -5577,7 +5630,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -5630,7 +5683,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -5683,7 +5736,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -5736,7 +5789,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -5792,7 +5845,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -5839,7 +5892,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -5886,7 +5939,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -5933,7 +5986,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -5980,7 +6033,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -6027,7 +6080,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6127,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -6121,7 +6174,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -6168,7 +6221,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -6215,7 +6268,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -6262,7 +6315,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -6309,7 +6362,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -6359,7 +6412,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -6412,7 +6465,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -6462,7 +6515,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -6512,7 +6565,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -6541,7 +6594,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -6591,7 +6644,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -6638,7 +6691,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -6685,7 +6738,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -6717,7 +6770,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -6764,7 +6817,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -6811,7 +6864,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -6852,7 +6905,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -6893,7 +6946,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -6934,7 +6987,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -6975,7 +7028,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -7028,7 +7081,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -7081,7 +7134,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -7131,7 +7184,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -7178,7 +7231,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -7231,7 +7284,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -7278,7 +7331,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -7325,7 +7378,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -7372,7 +7425,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -7410,7 +7463,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -7457,7 +7510,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -7504,7 +7557,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -7551,7 +7604,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -7598,7 +7651,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -7645,7 +7698,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -7686,7 +7739,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -7736,7 +7789,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -7786,7 +7839,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -7836,7 +7889,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -7886,7 +7939,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -7936,7 +7989,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -7986,7 +8039,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -8050,170 +8103,170 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA2" r:id="rId1"/>
-    <hyperlink ref="AB2" r:id="rId2"/>
-    <hyperlink ref="AA3" r:id="rId3"/>
-    <hyperlink ref="AB3" r:id="rId4"/>
-    <hyperlink ref="AA4" r:id="rId5"/>
-    <hyperlink ref="AB4" r:id="rId6"/>
-    <hyperlink ref="AA7" r:id="rId7"/>
-    <hyperlink ref="AB7" r:id="rId8"/>
-    <hyperlink ref="AA8" r:id="rId9"/>
-    <hyperlink ref="AB8" r:id="rId10"/>
-    <hyperlink ref="AA9" r:id="rId11"/>
-    <hyperlink ref="AB9" r:id="rId12"/>
-    <hyperlink ref="AA10" r:id="rId13"/>
-    <hyperlink ref="AB10" r:id="rId14"/>
-    <hyperlink ref="AA14" r:id="rId15"/>
-    <hyperlink ref="AB14" r:id="rId16"/>
-    <hyperlink ref="AA15" r:id="rId17"/>
-    <hyperlink ref="AB15" r:id="rId18"/>
-    <hyperlink ref="AA18" r:id="rId19"/>
-    <hyperlink ref="AB18" r:id="rId20"/>
-    <hyperlink ref="AA19" r:id="rId21"/>
-    <hyperlink ref="AB19" r:id="rId22"/>
-    <hyperlink ref="AA20" r:id="rId23"/>
-    <hyperlink ref="AB20" r:id="rId24"/>
-    <hyperlink ref="AA22" r:id="rId25"/>
-    <hyperlink ref="AB22" r:id="rId26"/>
-    <hyperlink ref="AA23" r:id="rId27"/>
-    <hyperlink ref="AB23" r:id="rId28"/>
-    <hyperlink ref="AA24" r:id="rId29"/>
-    <hyperlink ref="AB24" r:id="rId30"/>
-    <hyperlink ref="AA25" r:id="rId31"/>
-    <hyperlink ref="AB25" r:id="rId32"/>
-    <hyperlink ref="AA26" r:id="rId33"/>
-    <hyperlink ref="AB26" r:id="rId34"/>
-    <hyperlink ref="AA27" r:id="rId35"/>
-    <hyperlink ref="AB27" r:id="rId36"/>
-    <hyperlink ref="AA28" r:id="rId37"/>
-    <hyperlink ref="AB28" r:id="rId38"/>
-    <hyperlink ref="AA29" r:id="rId39"/>
-    <hyperlink ref="AB29" r:id="rId40"/>
-    <hyperlink ref="AA31" r:id="rId41"/>
-    <hyperlink ref="AB31" r:id="rId42"/>
-    <hyperlink ref="AA33" r:id="rId43"/>
-    <hyperlink ref="AB33" r:id="rId44"/>
-    <hyperlink ref="AA37" r:id="rId45"/>
-    <hyperlink ref="AB37" r:id="rId46"/>
-    <hyperlink ref="AA38" r:id="rId47"/>
-    <hyperlink ref="AB38" r:id="rId48"/>
-    <hyperlink ref="AA42" r:id="rId49"/>
-    <hyperlink ref="AB42" r:id="rId50"/>
-    <hyperlink ref="AA43" r:id="rId51"/>
-    <hyperlink ref="AB43" r:id="rId52"/>
-    <hyperlink ref="AA45" r:id="rId53"/>
-    <hyperlink ref="AB45" r:id="rId54"/>
-    <hyperlink ref="AA46" r:id="rId55"/>
-    <hyperlink ref="AB46" r:id="rId56"/>
-    <hyperlink ref="AA47" r:id="rId57"/>
-    <hyperlink ref="AB47" r:id="rId58"/>
-    <hyperlink ref="AA48" r:id="rId59"/>
-    <hyperlink ref="AB48" r:id="rId60"/>
-    <hyperlink ref="AA49" r:id="rId61"/>
-    <hyperlink ref="AB49" r:id="rId62"/>
-    <hyperlink ref="AA50" r:id="rId63"/>
-    <hyperlink ref="AB50" r:id="rId64"/>
-    <hyperlink ref="AA51" r:id="rId65"/>
-    <hyperlink ref="AB51" r:id="rId66"/>
-    <hyperlink ref="AA52" r:id="rId67"/>
-    <hyperlink ref="AB52" r:id="rId68"/>
-    <hyperlink ref="AA53" r:id="rId69"/>
-    <hyperlink ref="AB53" r:id="rId70"/>
-    <hyperlink ref="AA54" r:id="rId71"/>
-    <hyperlink ref="AB54" r:id="rId72"/>
-    <hyperlink ref="AA55" r:id="rId73"/>
-    <hyperlink ref="AB55" r:id="rId74"/>
-    <hyperlink ref="AA56" r:id="rId75"/>
-    <hyperlink ref="AB56" r:id="rId76"/>
-    <hyperlink ref="AA57" r:id="rId77"/>
-    <hyperlink ref="AB57" r:id="rId78"/>
-    <hyperlink ref="AA58" r:id="rId79"/>
-    <hyperlink ref="AB58" r:id="rId80"/>
-    <hyperlink ref="AA59" r:id="rId81"/>
-    <hyperlink ref="AB59" r:id="rId82"/>
-    <hyperlink ref="AA60" r:id="rId83"/>
-    <hyperlink ref="AB60" r:id="rId84"/>
-    <hyperlink ref="AA61" r:id="rId85"/>
-    <hyperlink ref="AB61" r:id="rId86"/>
-    <hyperlink ref="AA62" r:id="rId87"/>
-    <hyperlink ref="AB62" r:id="rId88"/>
-    <hyperlink ref="AA63" r:id="rId89"/>
-    <hyperlink ref="AB63" r:id="rId90"/>
-    <hyperlink ref="AA64" r:id="rId91"/>
-    <hyperlink ref="AB64" r:id="rId92"/>
-    <hyperlink ref="AA65" r:id="rId93"/>
-    <hyperlink ref="AB65" r:id="rId94"/>
-    <hyperlink ref="AA66" r:id="rId95"/>
-    <hyperlink ref="AB66" r:id="rId96"/>
-    <hyperlink ref="AA67" r:id="rId97"/>
-    <hyperlink ref="AB67" r:id="rId98"/>
-    <hyperlink ref="AA68" r:id="rId99"/>
-    <hyperlink ref="AB68" r:id="rId100"/>
-    <hyperlink ref="AA69" r:id="rId101"/>
-    <hyperlink ref="AB69" r:id="rId102"/>
-    <hyperlink ref="AA70" r:id="rId103"/>
-    <hyperlink ref="AB70" r:id="rId104"/>
-    <hyperlink ref="AA71" r:id="rId105"/>
-    <hyperlink ref="AB71" r:id="rId106"/>
-    <hyperlink ref="AA72" r:id="rId107"/>
-    <hyperlink ref="AB72" r:id="rId108"/>
-    <hyperlink ref="AA73" r:id="rId109"/>
-    <hyperlink ref="AB73" r:id="rId110"/>
-    <hyperlink ref="AA74" r:id="rId111"/>
-    <hyperlink ref="AB74" r:id="rId112"/>
-    <hyperlink ref="AA75" r:id="rId113"/>
-    <hyperlink ref="AB75" r:id="rId114"/>
-    <hyperlink ref="AA77" r:id="rId115"/>
-    <hyperlink ref="AB77" r:id="rId116"/>
-    <hyperlink ref="AA78" r:id="rId117"/>
-    <hyperlink ref="AB78" r:id="rId118"/>
-    <hyperlink ref="AA79" r:id="rId119"/>
-    <hyperlink ref="AB79" r:id="rId120"/>
-    <hyperlink ref="AA81" r:id="rId121"/>
-    <hyperlink ref="AB81" r:id="rId122"/>
-    <hyperlink ref="AA82" r:id="rId123"/>
-    <hyperlink ref="AB82" r:id="rId124"/>
-    <hyperlink ref="AA87" r:id="rId125"/>
-    <hyperlink ref="AB87" r:id="rId126"/>
-    <hyperlink ref="AA88" r:id="rId127"/>
-    <hyperlink ref="AB88" r:id="rId128"/>
-    <hyperlink ref="AA89" r:id="rId129"/>
-    <hyperlink ref="AB89" r:id="rId130"/>
-    <hyperlink ref="AA90" r:id="rId131"/>
-    <hyperlink ref="AB90" r:id="rId132"/>
-    <hyperlink ref="AA91" r:id="rId133"/>
-    <hyperlink ref="AB91" r:id="rId134"/>
-    <hyperlink ref="AA92" r:id="rId135"/>
-    <hyperlink ref="AB92" r:id="rId136"/>
-    <hyperlink ref="AA93" r:id="rId137"/>
-    <hyperlink ref="AB93" r:id="rId138"/>
-    <hyperlink ref="AA94" r:id="rId139"/>
-    <hyperlink ref="AB94" r:id="rId140"/>
-    <hyperlink ref="AA96" r:id="rId141"/>
-    <hyperlink ref="AB96" r:id="rId142"/>
-    <hyperlink ref="AA97" r:id="rId143"/>
-    <hyperlink ref="AB97" r:id="rId144"/>
-    <hyperlink ref="AA98" r:id="rId145"/>
-    <hyperlink ref="AB98" r:id="rId146"/>
-    <hyperlink ref="AA99" r:id="rId147"/>
-    <hyperlink ref="AB99" r:id="rId148"/>
-    <hyperlink ref="AA100" r:id="rId149"/>
-    <hyperlink ref="AB100" r:id="rId150"/>
-    <hyperlink ref="AA102" r:id="rId151"/>
-    <hyperlink ref="AB102" r:id="rId152"/>
-    <hyperlink ref="AA103" r:id="rId153"/>
-    <hyperlink ref="AB103" r:id="rId154"/>
-    <hyperlink ref="AA104" r:id="rId155"/>
-    <hyperlink ref="AB104" r:id="rId156"/>
-    <hyperlink ref="AA105" r:id="rId157"/>
-    <hyperlink ref="AB105" r:id="rId158"/>
-    <hyperlink ref="AA106" r:id="rId159"/>
-    <hyperlink ref="AB106" r:id="rId160"/>
-    <hyperlink ref="AA107" r:id="rId161"/>
-    <hyperlink ref="AB107" r:id="rId162"/>
-    <hyperlink ref="AA108" r:id="rId163"/>
-    <hyperlink ref="AB108" r:id="rId164"/>
+    <hyperlink ref="AA2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AA3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AA4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AA8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AA9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AB9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AA10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AB10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AA14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AA15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AA18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AB18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AA19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AB19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AA20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AA22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AB22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AA23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AB23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AA24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AB24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AA25" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AB25" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AA26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AB26" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AA27" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AB27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AA28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AB28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AA29" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AB29" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AA31" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AB31" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AA33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AB33" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AA37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AB37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AA38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AB38" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AA42" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AB42" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AA43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AB43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AA45" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AB45" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AA46" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AB46" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AA47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AB47" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AA48" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AB48" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AA49" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AB49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AA50" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AB50" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AA51" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AB51" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="AA52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AB52" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="AA53" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AB53" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AA54" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AB54" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AA55" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AB55" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AA56" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AB56" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AA57" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AB57" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AA58" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AB58" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AA59" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AB59" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AA60" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AB60" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AA61" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AB61" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AA62" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AB62" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AA63" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AB63" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AA64" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AB64" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AA65" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AB65" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AA66" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AB66" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AA67" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="AB67" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="AA68" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AB68" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="AA69" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="AB69" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="AA70" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="AB70" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="AA71" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="AB71" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="AA72" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="AB72" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="AA73" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="AB73" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="AA74" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="AB74" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="AA75" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="AB75" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="AA77" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="AB77" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="AA78" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="AB78" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="AA79" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="AB79" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="AA81" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="AB81" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="AA82" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="AB82" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="AA87" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="AB87" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="AA88" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="AB88" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="AA89" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="AB89" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="AA90" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="AB90" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="AA91" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AB91" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="AA92" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="AB92" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="AA93" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="AB93" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="AA94" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="AB94" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="AA96" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="AB96" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="AA97" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="AB97" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="AA98" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="AB98" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="AA99" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="AB99" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="AA100" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="AB100" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="AA102" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="AB102" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="AA103" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="AB103" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="AA104" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="AB104" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="AA105" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="AB105" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="AA106" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="AB106" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="AA107" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="AB107" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="AA108" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="AB108" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
